--- a/container/claudecode/js-test-specs/test_specification.xlsx
+++ b/container/claudecode/js-test-specs/test_specification.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="139">
-  <si>
-    <t>番号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="203">
+  <si>
+    <t>FQN</t>
   </si>
   <si>
     <t>ソフトウェア・サービス</t>
@@ -31,6 +31,30 @@
     <t>確認項目</t>
   </si>
   <si>
+    <t>テスト実施実績日</t>
+  </si>
+  <si>
+    <t>テスト結果</t>
+  </si>
+  <si>
+    <t>テスト実施者</t>
+  </si>
+  <si>
+    <t>テスト検証者</t>
+  </si>
+  <si>
+    <t>申し送り有無</t>
+  </si>
+  <si>
+    <t>申し送りテスト実施タイミング</t>
+  </si>
+  <si>
+    <t>申し送りテスト実施時期(予定)</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
     <t>テスト対象モジュール名</t>
   </si>
   <si>
@@ -49,288 +73,357 @@
     <t>テストケース修正日</t>
   </si>
   <si>
-    <t>テスト実行ステータス</t>
-  </si>
-  <si>
-    <t>実行時間(ms)</t>
-  </si>
-  <si>
-    <t>カバレッジ率</t>
+    <t>/root/aws.git/container/claudecode/js-test-specs/src/test/core/AnnotationParser.test.js</t>
+  </si>
+  <si>
+    <t>テストサービス</t>
+  </si>
+  <si>
+    <t>テスト1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MyModule</t>
+  </si>
+  <si>
+    <t>サービス1</t>
+  </si>
+  <si>
+    <t>テスト項目1</t>
+  </si>
+  <si>
+    <t>Module2</t>
+  </si>
+  <si>
+    <t>SharedModule</t>
+  </si>
+  <si>
+    <t>個別テスト1</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>個別テスト2</t>
+  </si>
+  <si>
+    <t>/root/aws.git/container/claudecode/js-test-specs/src/test/example/BasicCalculator.test.js</t>
+  </si>
+  <si>
+    <t>計算サービス</t>
+  </si>
+  <si>
+    <t>基本演算機能テスト</t>
+  </si>
+  <si>
+    <t>加減乗除、絶対値、最大値/最小値、階乗、素数判定、フィボナッチ、GCD/LCM、累乗、平方根、パーセンテージの各機能を検証</t>
+  </si>
+  <si>
+    <t>各演算が正しく実行され、エッジケースおよび例外処理が適切に動作することを確認</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>BasicCalculator</t>
+  </si>
+  <si>
+    <t>開発チーム</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>減算機能テスト</t>
+  </si>
+  <si>
+    <t>正の数、負の数、ゼロを含む減算演算を実行</t>
+  </si>
+  <si>
+    <t>すべての減算結果が数学的に正しいことを確認</t>
+  </si>
+  <si>
+    <t>testMultiplication</t>
+  </si>
+  <si>
+    <t>乗算機能のテスト</t>
+  </si>
+  <si>
+    <t>正しい乗算結果</t>
+  </si>
+  <si>
+    <t>除算機能テスト</t>
+  </si>
+  <si>
+    <t>正の数、負の数、小数を含む除算演算を実行し、ゼロ除算の例外処理を検証</t>
+  </si>
+  <si>
+    <t>正しい除算結果とゼロ除算時のError発生を確認</t>
+  </si>
+  <si>
+    <t>testAbsoluteValue</t>
+  </si>
+  <si>
+    <t>絶対値機能のテスト</t>
+  </si>
+  <si>
+    <t>正しい絶対値</t>
+  </si>
+  <si>
+    <t>testMaxMin</t>
+  </si>
+  <si>
+    <t>最大値・最小値機能のテスト</t>
+  </si>
+  <si>
+    <t>正しい最大値・最小値</t>
+  </si>
+  <si>
+    <t>階乗機能テスト</t>
+  </si>
+  <si>
+    <t>0から10までの階乗計算および負の数の例外処理を検証</t>
+  </si>
+  <si>
+    <t>正しい階乗計算結果と負の数入力時のError発生を確認</t>
+  </si>
+  <si>
+    <t>素数判定機能テスト</t>
+  </si>
+  <si>
+    <t>2から100までの範囲で素数判定を実行</t>
+  </si>
+  <si>
+    <t>素数と合成数が正しく判定されることを確認</t>
+  </si>
+  <si>
+    <t>フィボナッチ数列機能テスト</t>
+  </si>
+  <si>
+    <t>0から15までのフィボナッチ数を計算し、負の数の例外処理を検証</t>
+  </si>
+  <si>
+    <t>正しいフィボナッチ数列の生成と負の数入力時のError発生を確認</t>
+  </si>
+  <si>
+    <t>最大公約数機能テスト</t>
+  </si>
+  <si>
+    <t>正の数、負の数を含むGCD計算を実行</t>
+  </si>
+  <si>
+    <t>ユークリッドの互除法による正しいGCD計算を確認</t>
+  </si>
+  <si>
+    <t>最小公倍数機能テスト</t>
+  </si>
+  <si>
+    <t>正の数、負の数、ゼロを含むLCM計算を実行</t>
+  </si>
+  <si>
+    <t>正しいLCM計算結果を確認</t>
+  </si>
+  <si>
+    <t>累乗機能テスト</t>
+  </si>
+  <si>
+    <t>正の指数、ゼロ指数、負の指数を含む累乗計算を実行</t>
+  </si>
+  <si>
+    <t>正しい累乗計算結果を確認</t>
+  </si>
+  <si>
+    <t>平方根機能テスト</t>
+  </si>
+  <si>
+    <t>バビロニア法による平方根計算および負の数の例外処理を検証</t>
+  </si>
+  <si>
+    <t>正しい平方根計算結果と負の数入力時のError発生を確認</t>
+  </si>
+  <si>
+    <t>パーセンテージ計算機能テスト</t>
+  </si>
+  <si>
+    <t>部分値と全体値からパーセンテージを計算し、ゼロ除算の例外処理を検証</t>
+  </si>
+  <si>
+    <t>正しいパーセンテージ計算結果とゼロ除算時のError発生を確認</t>
+  </si>
+  <si>
+    <t>テスト仕様書サマリー</t>
+  </si>
+  <si>
+    <t>総テストケース数</t>
+  </si>
+  <si>
+    <t>ファイル数</t>
+  </si>
+  <si>
+    <t>テスト実行サマリー</t>
+  </si>
+  <si>
+    <t>実行テスト数</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>失敗</t>
+  </si>
+  <si>
+    <t>スキップ</t>
+  </si>
+  <si>
+    <t>成功率</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>カバレッジサマリー</t>
+  </si>
+  <si>
+    <t>ブランチカバレッジ</t>
+  </si>
+  <si>
+    <t>70.26%</t>
+  </si>
+  <si>
+    <t>行カバレッジ</t>
+  </si>
+  <si>
+    <t>71.41%</t>
+  </si>
+  <si>
+    <t>メソッドカバレッジ</t>
+  </si>
+  <si>
+    <t>89.63%</t>
+  </si>
+  <si>
+    <t>カバーされたブランチ</t>
+  </si>
+  <si>
+    <t>801 / 1140</t>
+  </si>
+  <si>
+    <t>生成日時</t>
+  </si>
+  <si>
+    <t>2026/2/12 9:44:10</t>
+  </si>
+  <si>
+    <t>クラス名</t>
+  </si>
+  <si>
+    <t>メソッド名</t>
+  </si>
+  <si>
+    <t>総ブランチ数</t>
+  </si>
+  <si>
+    <t>カバーされた行</t>
+  </si>
+  <si>
+    <t>総行数</t>
   </si>
   <si>
     <t>カバレッジステータス</t>
   </si>
   <si>
-    <t>計算サービス</t>
-  </si>
-  <si>
-    <t>基本演算機能テスト</t>
-  </si>
-  <si>
-    <t>加減乗除、絶対値、最大値/最小値、階乗、素数判定、フィボナッチ、GCD/LCM、累乗、平方根、パーセンテージの各機能を検証</t>
-  </si>
-  <si>
-    <t>各演算が正しく実行され、エッジケースおよび例外処理が適切に動作することを確認</t>
-  </si>
-  <si>
-    <t>BasicCalculator</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>開発チーム</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>✓ PASS</t>
-  </si>
-  <si>
-    <t>0.00% (0/0)</t>
+    <t>index</t>
+  </si>
+  <si>
+    <t>processMultiModule</t>
+  </si>
+  <si>
+    <t>0.00%</t>
   </si>
   <si>
     <t>カバレッジなし</t>
   </si>
   <si>
-    <t>減算機能テスト</t>
-  </si>
-  <si>
-    <t>正の数、負の数、ゼロを含む減算演算を実行</t>
-  </si>
-  <si>
-    <t>すべての減算結果が数学的に正しいことを確認</t>
-  </si>
-  <si>
-    <t>testMultiplication</t>
-  </si>
-  <si>
-    <t>乗算機能のテスト</t>
-  </si>
-  <si>
-    <t>正しい乗算結果</t>
-  </si>
-  <si>
-    <t>除算機能テスト</t>
-  </si>
-  <si>
-    <t>正の数、負の数、小数を含む除算演算を実行し、ゼロ除算の例外処理を検証</t>
-  </si>
-  <si>
-    <t>正しい除算結果とゼロ除算時のError発生を確認</t>
-  </si>
-  <si>
-    <t>testAbsoluteValue</t>
-  </si>
-  <si>
-    <t>絶対値機能のテスト</t>
-  </si>
-  <si>
-    <t>正しい絶対値</t>
-  </si>
-  <si>
-    <t>testMaxMin</t>
-  </si>
-  <si>
-    <t>最大値・最小値機能のテスト</t>
-  </si>
-  <si>
-    <t>正しい最大値・最小値</t>
-  </si>
-  <si>
-    <t>階乗機能テスト</t>
-  </si>
-  <si>
-    <t>0から10までの階乗計算および負の数の例外処理を検証</t>
-  </si>
-  <si>
-    <t>正しい階乗計算結果と負の数入力時のError発生を確認</t>
-  </si>
-  <si>
-    <t>素数判定機能テスト</t>
-  </si>
-  <si>
-    <t>2から100までの範囲で素数判定を実行</t>
-  </si>
-  <si>
-    <t>素数と合成数が正しく判定されることを確認</t>
-  </si>
-  <si>
-    <t>フィボナッチ数列機能テスト</t>
-  </si>
-  <si>
-    <t>0から15までのフィボナッチ数を計算し、負の数の例外処理を検証</t>
-  </si>
-  <si>
-    <t>正しいフィボナッチ数列の生成と負の数入力時のError発生を確認</t>
-  </si>
-  <si>
-    <t>最大公約数機能テスト</t>
-  </si>
-  <si>
-    <t>正の数、負の数を含むGCD計算を実行</t>
-  </si>
-  <si>
-    <t>ユークリッドの互除法による正しいGCD計算を確認</t>
-  </si>
-  <si>
-    <t>最小公倍数機能テスト</t>
-  </si>
-  <si>
-    <t>正の数、負の数、ゼロを含むLCM計算を実行</t>
-  </si>
-  <si>
-    <t>正しいLCM計算結果を確認</t>
-  </si>
-  <si>
-    <t>累乗機能テスト</t>
-  </si>
-  <si>
-    <t>正の指数、ゼロ指数、負の指数を含む累乗計算を実行</t>
-  </si>
-  <si>
-    <t>正しい累乗計算結果を確認</t>
-  </si>
-  <si>
-    <t>平方根機能テスト</t>
-  </si>
-  <si>
-    <t>バビロニア法による平方根計算および負の数の例外処理を検証</t>
-  </si>
-  <si>
-    <t>正しい平方根計算結果と負の数入力時のError発生を確認</t>
-  </si>
-  <si>
-    <t>パーセンテージ計算機能テスト</t>
-  </si>
-  <si>
-    <t>部分値と全体値からパーセンテージを計算し、ゼロ除算の例外処理を検証</t>
-  </si>
-  <si>
-    <t>正しいパーセンテージ計算結果とゼロ除算時のError発生を確認</t>
-  </si>
-  <si>
-    <t>テスト仕様書サマリー</t>
-  </si>
-  <si>
-    <t>総テストケース数</t>
-  </si>
-  <si>
-    <t>ファイル数</t>
-  </si>
-  <si>
-    <t>テスト実行サマリー</t>
-  </si>
-  <si>
-    <t>実行テスト数</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>失敗</t>
-  </si>
-  <si>
-    <t>スキップ</t>
-  </si>
-  <si>
-    <t>成功率</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>カバレッジサマリー</t>
-  </si>
-  <si>
-    <t>ブランチカバレッジ</t>
-  </si>
-  <si>
-    <t>8.77%</t>
-  </si>
-  <si>
-    <t>行カバレッジ</t>
-  </si>
-  <si>
-    <t>8.72%</t>
-  </si>
-  <si>
-    <t>メソッドカバレッジ</t>
-  </si>
-  <si>
-    <t>13.51%</t>
-  </si>
-  <si>
-    <t>カバーされたブランチ</t>
-  </si>
-  <si>
-    <t>40 / 456</t>
-  </si>
-  <si>
-    <t>生成日時</t>
-  </si>
-  <si>
-    <t>2026/2/10 8:36:59</t>
-  </si>
-  <si>
-    <t>クラス名</t>
-  </si>
-  <si>
-    <t>メソッド名</t>
-  </si>
-  <si>
-    <t>総ブランチ数</t>
-  </si>
-  <si>
-    <t>カバーされた行</t>
-  </si>
-  <si>
-    <t>総行数</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>(anonymous_1)</t>
+  </si>
+  <si>
+    <t>(anonymous_2)</t>
+  </si>
+  <si>
+    <t>(anonymous_3)</t>
+  </si>
+  <si>
+    <t>(anonymous_4)</t>
+  </si>
+  <si>
+    <t>AnnotationParser</t>
   </si>
   <si>
     <t>(anonymous_0)</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>(anonymous_1)</t>
-  </si>
-  <si>
-    <t>(anonymous_2)</t>
-  </si>
-  <si>
-    <t>(anonymous_3)</t>
-  </si>
-  <si>
-    <t>AnnotationParser</t>
-  </si>
-  <si>
-    <t>(anonymous_4)</t>
+    <t>60.00%</t>
   </si>
   <si>
     <t>(anonymous_5)</t>
   </si>
   <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
     <t>(anonymous_6)</t>
   </si>
   <si>
     <t>(anonymous_7)</t>
   </si>
   <si>
+    <t>優秀</t>
+  </si>
+  <si>
     <t>(anonymous_8)</t>
   </si>
   <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>良好</t>
+  </si>
+  <si>
     <t>(anonymous_9)</t>
   </si>
   <si>
     <t>CoverageReportParser</t>
   </si>
   <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>94.59%</t>
+  </si>
+  <si>
+    <t>97.67%</t>
+  </si>
+  <si>
+    <t>73.33%</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
     <t>(anonymous_10)</t>
   </si>
   <si>
@@ -343,12 +436,42 @@
     <t>CsvSheetBuilder</t>
   </si>
   <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>72.50%</t>
+  </si>
+  <si>
+    <t>79.17%</t>
+  </si>
+  <si>
+    <t>92.86%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
     <t>ExcelSheetBuilder</t>
   </si>
   <si>
+    <t>81.25%</t>
+  </si>
+  <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>85.00%</t>
+  </si>
+  <si>
+    <t>87.50%</t>
+  </si>
+  <si>
     <t>(anonymous_13)</t>
   </si>
   <si>
+    <t>88.89%</t>
+  </si>
+  <si>
     <t>(anonymous_14)</t>
   </si>
   <si>
@@ -358,15 +481,78 @@
     <t>FolderScanner</t>
   </si>
   <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>76.92%</t>
+  </si>
+  <si>
+    <t>MultiModuleProcessor</t>
+  </si>
+  <si>
+    <t>63.64%</t>
+  </si>
+  <si>
+    <t>58.82%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>(anonymous_16)</t>
+  </si>
+  <si>
+    <t>(anonymous_17)</t>
+  </si>
+  <si>
+    <t>(anonymous_18)</t>
+  </si>
+  <si>
+    <t>(anonymous_19)</t>
+  </si>
+  <si>
+    <t>(anonymous_20)</t>
+  </si>
+  <si>
+    <t>(anonymous_21)</t>
+  </si>
+  <si>
     <t>TestExecutionParser</t>
   </si>
   <si>
-    <t>優秀</t>
+    <t>58.33%</t>
+  </si>
+  <si>
+    <t>90.91%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
+    <t>41.18%</t>
+  </si>
+  <si>
+    <t>要改善</t>
+  </si>
+  <si>
+    <t>WorkspaceDetector</t>
+  </si>
+  <si>
+    <t>72.73%</t>
   </si>
   <si>
     <t>CoverageInfo</t>
   </si>
   <si>
+    <t>ModuleInfo</t>
+  </si>
+  <si>
+    <t>ModuleResult</t>
+  </si>
+  <si>
     <t>TestCaseInfo</t>
   </si>
   <si>
@@ -389,6 +575,12 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>moduleProcessor</t>
+  </si>
+  <si>
+    <t>processModule</t>
   </si>
   <si>
     <t>処理設定情報</t>
@@ -461,7 +653,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +692,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
@@ -516,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -872,16 +1082,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:S22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="40" customWidth="1"/>
-    <col min="6" max="15" width="20" customWidth="1"/>
+    <col min="6" max="19" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,663 +1138,1256 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="O6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="Q13" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
       </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="2">
-        <v>2</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>24</v>
       </c>
-      <c r="O11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
         <v>24</v>
       </c>
-      <c r="O13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="2">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="O15" t="s">
-        <v>25</v>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1602,33 +2406,33 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -1636,7 +2440,7 @@
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5">
         <v>14</v>
@@ -1644,7 +2448,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1652,7 +2456,7 @@
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -1660,55 +2464,55 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I165"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -1729,100 +2533,100 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -1831,27 +2635,27 @@
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1860,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1869,18 +2673,18 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -1889,27 +2693,27 @@
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1918,85 +2722,85 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="9">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -2005,172 +2809,172 @@
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="9">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H14" s="9">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -2179,85 +2983,85 @@
         <v>0</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="G18" s="9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H18" s="9">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2266,27 +3070,27 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -2295,288 +3099,288 @@
         <v>0</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G20" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H22" s="9">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="9">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
+      <c r="I27" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="9">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -2585,230 +3389,230 @@
         <v>0</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D32" s="9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E32" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G32" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H32" s="9">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>28</v>
-      </c>
-      <c r="I33" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D34" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E34" s="9">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="G34" s="9">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H34" s="9">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
+      <c r="H36" s="9">
         <v>6</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>25</v>
+      <c r="I36" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D38" s="9">
         <v>0</v>
@@ -2817,27 +3621,27 @@
         <v>0</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G38" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H38" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2846,201 +3650,201 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D40" s="9">
         <v>0</v>
       </c>
       <c r="E40" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>29</v>
-      </c>
-      <c r="I41" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D42" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E42" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G42" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H42" s="9">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G44" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
@@ -3049,27 +3853,27 @@
         <v>0</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G46" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="9">
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3078,27 +3882,27 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
@@ -3107,94 +3911,94 @@
         <v>0</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="9">
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D50" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E50" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="G50" s="9">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H50" s="9">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3203,105 +4007,105 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D52" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E52" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G52" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="9">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H53">
-        <v>6</v>
-      </c>
-      <c r="I53" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G54" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H54" s="9">
-        <v>22</v>
-      </c>
-      <c r="I54" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3310,143 +4114,143 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
       </c>
       <c r="E56" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G56" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="B57" t="s">
-        <v>95</v>
-      </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>6</v>
-      </c>
-      <c r="I57" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D58" s="9">
         <v>0</v>
       </c>
       <c r="E58" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="G58" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" s="9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
@@ -3455,27 +4259,27 @@
         <v>0</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G60" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60" s="9">
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3484,85 +4288,85 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D62" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G62" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="9">
-        <v>12</v>
-      </c>
-      <c r="I62" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="C64" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -3571,201 +4375,201 @@
         <v>0</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G64" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D66" s="9">
         <v>0</v>
       </c>
       <c r="E66" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H67">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
       </c>
       <c r="E68" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G68" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="9">
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D70" s="9">
         <v>0</v>
       </c>
       <c r="E70" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G70" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H70" s="9">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3774,27 +4578,27 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -3803,27 +4607,27 @@
         <v>0</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G72" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3832,230 +4636,230 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D74" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" s="9">
         <v>2</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="G74" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" s="9">
-        <v>3</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>115</v>
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D76" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="G76" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H76" s="9">
         <v>3</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>115</v>
+      <c r="I76" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>19</v>
       </c>
-      <c r="B77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>115</v>
+      <c r="I77" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D78" s="9">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E78" s="9">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G78" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H78" s="9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="9">
         <v>4</v>
       </c>
-      <c r="E80" s="9">
+      <c r="H80" s="9">
         <v>4</v>
       </c>
-      <c r="F80" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" s="9">
-        <v>12</v>
-      </c>
-      <c r="H80" s="9">
-        <v>12</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>115</v>
+      <c r="I80" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4064,375 +4868,375 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D82" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E82" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G82" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" s="9">
-        <v>3</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>9</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D84" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E84" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G84" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H84" s="9">
-        <v>11</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>115</v>
+        <v>12</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D86" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E86" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="G86" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H86" s="9">
-        <v>13</v>
-      </c>
-      <c r="I86" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D88" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E88" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G88" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H88" s="9">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="D90" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E90" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="G90" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H90" s="9">
-        <v>1</v>
-      </c>
-      <c r="I90" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
       </c>
       <c r="E92" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G92" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D94" s="9">
         <v>0</v>
@@ -4441,85 +5245,85 @@
         <v>0</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G94" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94" s="9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H95">
-        <v>5</v>
-      </c>
-      <c r="I95" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D96" s="9">
         <v>0</v>
       </c>
       <c r="E96" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G96" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H96" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4528,85 +5332,85 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D98" s="9">
         <v>0</v>
       </c>
       <c r="E98" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G98" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" s="9">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
@@ -4615,27 +5419,27 @@
         <v>0</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G100" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H100" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4644,56 +5448,56 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D102" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E102" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G102" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="9">
-        <v>1</v>
-      </c>
-      <c r="I102" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4702,85 +5506,85 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="C104" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D104" s="9">
         <v>0</v>
       </c>
       <c r="E104" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G104" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="9">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D106" s="9">
         <v>0</v>
@@ -4789,190 +5593,1727 @@
         <v>0</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G106" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="9">
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107">
-        <v>7</v>
-      </c>
-      <c r="I107" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D108" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E108" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G108" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" s="9">
         <v>3</v>
       </c>
-      <c r="I108" t="s">
-        <v>25</v>
+      <c r="I108" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D110" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E110" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G110" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H110" s="9">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="9">
+        <v>8</v>
+      </c>
+      <c r="E112" s="9">
+        <v>8</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G112" s="9">
+        <v>11</v>
+      </c>
+      <c r="H112" s="9">
+        <v>11</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>91</v>
+      </c>
+      <c r="G113">
+        <v>12</v>
+      </c>
+      <c r="H113">
+        <v>12</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G114" s="9">
+        <v>7</v>
+      </c>
+      <c r="H114" s="9">
+        <v>7</v>
+      </c>
+      <c r="I114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D116" s="9">
+        <v>4</v>
+      </c>
+      <c r="E116" s="9">
+        <v>4</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G116" s="9">
+        <v>9</v>
+      </c>
+      <c r="H116" s="9">
+        <v>9</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117">
+        <v>11</v>
+      </c>
+      <c r="H117">
+        <v>11</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="9">
+        <v>2</v>
+      </c>
+      <c r="E118" s="9">
+        <v>2</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G118" s="9">
+        <v>3</v>
+      </c>
+      <c r="H118" s="9">
+        <v>3</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>91</v>
+      </c>
+      <c r="G119">
+        <v>13</v>
+      </c>
+      <c r="H119">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="9">
+        <v>2</v>
+      </c>
+      <c r="E120" s="9">
+        <v>2</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>91</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="9">
+        <v>2</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>91</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1</v>
+      </c>
+      <c r="E124" s="9">
+        <v>2</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125">
+        <v>8</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>91</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125">
+        <v>10</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" s="9">
-        <v>0</v>
-      </c>
-      <c r="E112" s="9">
+      <c r="C126" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" s="9">
+        <v>0</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G126" s="9">
+        <v>1</v>
+      </c>
+      <c r="H126" s="9">
+        <v>1</v>
+      </c>
+      <c r="I126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>91</v>
+      </c>
+      <c r="G127">
+        <v>9</v>
+      </c>
+      <c r="H127">
+        <v>9</v>
+      </c>
+      <c r="I127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="9">
+        <v>2</v>
+      </c>
+      <c r="E128" s="9">
+        <v>2</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G128" s="9">
+        <v>7</v>
+      </c>
+      <c r="H128" s="9">
+        <v>7</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <v>9</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="9">
         <v>3</v>
       </c>
-      <c r="F112" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G112" s="9">
-        <v>0</v>
-      </c>
-      <c r="H112" s="9">
+      <c r="E130" s="9">
         <v>3</v>
       </c>
-      <c r="I112" t="s">
-        <v>25</v>
+      <c r="F130" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
+      <c r="H130" s="9">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" t="s">
+        <v>111</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>91</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132" s="9">
+        <v>0</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132" s="9">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" t="s">
+        <v>111</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>91</v>
+      </c>
+      <c r="G133">
+        <v>8</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="I133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="9">
+        <v>2</v>
+      </c>
+      <c r="E134" s="9">
+        <v>2</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+      <c r="H134" s="9">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>178</v>
+      </c>
+      <c r="B135" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" t="s">
+        <v>111</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" s="9">
+        <v>0</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1</v>
+      </c>
+      <c r="H136" s="9">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" t="s">
+        <v>111</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="9">
+        <v>3</v>
+      </c>
+      <c r="H138" s="9">
+        <v>3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>91</v>
+      </c>
+      <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" s="9">
+        <v>0</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G140" s="9">
+        <v>1</v>
+      </c>
+      <c r="H140" s="9">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" t="s">
+        <v>111</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>91</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D142" s="9">
+        <v>0</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="H142" s="9">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" t="s">
+        <v>111</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144" s="9">
+        <v>0</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144" s="9">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>179</v>
+      </c>
+      <c r="B145" t="s">
+        <v>118</v>
+      </c>
+      <c r="C145" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145">
+        <v>33</v>
+      </c>
+      <c r="H145">
+        <v>33</v>
+      </c>
+      <c r="I145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" s="9">
+        <v>2</v>
+      </c>
+      <c r="E146" s="9">
+        <v>2</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="9">
+        <v>5</v>
+      </c>
+      <c r="H146" s="9">
+        <v>5</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>151</v>
+      </c>
+      <c r="G147">
+        <v>8</v>
+      </c>
+      <c r="H147">
+        <v>9</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="9">
+        <v>3</v>
+      </c>
+      <c r="E148" s="9">
+        <v>4</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" s="9">
+        <v>5</v>
+      </c>
+      <c r="H148" s="9">
+        <v>5</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D149">
+        <v>14</v>
+      </c>
+      <c r="E149">
+        <v>16</v>
+      </c>
+      <c r="F149" t="s">
+        <v>91</v>
+      </c>
+      <c r="G149">
+        <v>23</v>
+      </c>
+      <c r="H149">
+        <v>23</v>
+      </c>
+      <c r="I149" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D150" s="9">
+        <v>0</v>
+      </c>
+      <c r="E150" s="9">
+        <v>0</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G150" s="9">
+        <v>0</v>
+      </c>
+      <c r="H150" s="9">
+        <v>1</v>
+      </c>
+      <c r="I150" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" t="s">
+        <v>123</v>
+      </c>
+      <c r="C151" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151">
+        <v>6</v>
+      </c>
+      <c r="H151">
+        <v>6</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" s="9">
+        <v>0</v>
+      </c>
+      <c r="E152" s="9">
+        <v>0</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152" s="9">
+        <v>1</v>
+      </c>
+      <c r="I152" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>179</v>
+      </c>
+      <c r="B153" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>91</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D154" s="9">
+        <v>0</v>
+      </c>
+      <c r="E154" s="9">
+        <v>0</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154" s="9">
+        <v>1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" t="s">
+        <v>118</v>
+      </c>
+      <c r="C155" t="s">
+        <v>111</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155">
+        <v>6</v>
+      </c>
+      <c r="H155">
+        <v>6</v>
+      </c>
+      <c r="I155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D156" s="9">
+        <v>2</v>
+      </c>
+      <c r="E156" s="9">
+        <v>2</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="H156" s="9">
+        <v>1</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" t="s">
+        <v>91</v>
+      </c>
+      <c r="D157">
+        <v>8</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>91</v>
+      </c>
+      <c r="G157">
+        <v>7</v>
+      </c>
+      <c r="H157">
+        <v>7</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" s="9">
+        <v>0</v>
+      </c>
+      <c r="E158" s="9">
+        <v>0</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158" s="9">
+        <v>1</v>
+      </c>
+      <c r="I158" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" t="s">
+        <v>91</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159">
+        <v>7</v>
+      </c>
+      <c r="H159">
+        <v>7</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="9">
+        <v>0</v>
+      </c>
+      <c r="E160" s="9">
+        <v>0</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" s="9">
+        <v>3</v>
+      </c>
+      <c r="H160" s="9">
+        <v>3</v>
+      </c>
+      <c r="I160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>181</v>
+      </c>
+      <c r="B161" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" t="s">
+        <v>111</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D162" s="9">
+        <v>1</v>
+      </c>
+      <c r="E162" s="9">
+        <v>1</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="H162" s="9">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D164" s="9">
+        <v>2</v>
+      </c>
+      <c r="E164" s="9">
+        <v>3</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G164" s="9">
+        <v>3</v>
+      </c>
+      <c r="H164" s="9">
+        <v>3</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165" t="s">
+        <v>188</v>
+      </c>
+      <c r="C165" t="s">
+        <v>111</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165" t="s">
+        <v>111</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>41</v>
+      </c>
+      <c r="I165" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4992,72 +7333,72 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>134</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
